--- a/Resources/behavior_preparation_grid.xlsx
+++ b/Resources/behavior_preparation_grid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="40" windowWidth="27360" windowHeight="15140"/>
+    <workbookView xWindow="240" yWindow="40" windowWidth="28560" windowHeight="17460"/>
   </bookViews>
   <sheets>
     <sheet name="Behavioral Questions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>Academic Projects</t>
   </si>
@@ -171,14 +171,53 @@
     <t>For the first scope of this proyect (booking + expedia) we had a budget of got 75,000 USD. But given my lack of expertise and that this was my first proyect as a Manager we ran out of money halfway. I quickly realized that I had underestimated this proyect. I had to talk with my boss and the CIO and explain them the situation I was facing. Of course they were not happy with what they were hearing but they accepted to let me to replan this proyect. This was a difficult situation I felt I was failing at my new position, but I realized quickly that I needed to put more attention to the proyect planning / budget planning and control tasks and leave the coding tasks asside. I'm glad I realized about this on time.</t>
   </si>
   <si>
-    <t xml:space="preserve">When I was a proyect leader of City Express' Data Warehouse, while builiding a testing environment I didn't realized that my database IDE was pointing to production environment and I mistakefully changed a Database name. After a couple of hours </t>
+    <t>When I was a proyect leader of City Express' Data Warehouse, while builiding a testing environment I didn't realized that my database IDE was pointing to production environment and I mistakefully changed a Database name. After a couple of hours our help desk recieved alarms of reports and applications that were presenting errors. As soon as I was notified I realized that I had made a mistake and I need to correct ASAP. I explained to our operation team what had happened and inmediately I returned the DB name to its original. After that I asked our operations team to block every made from my computer to production environment. After that I learned to double check every my IDE configuration before making any change (although I know that I can´t reach any productive environment now).</t>
+  </si>
+  <si>
+    <t>One of my first assignments on my position as a SDM was to build a channel manager from the ground up. I had a team of 4 SDE and 3 months for shipping. As a SDM I lead the development of this product: Defining requirements, Defining the high level architecture of the system, joining my team to discuss techinncal issues (programming language to be used, DBMRS to use, interaction between components). The meetings that I were requesting had the goal to make my team to express their ideas and opinions. After our brainstorming sessions we discussed the pros and cons of every idea and we took the final decisionn as a team. My role as an SDM was to focus the meeting on the important stuff and make sure that the team didn't loose the entire picture of  the software we wanted to create.</t>
+  </si>
+  <si>
+    <t>As an SDM at HCE i was also responsible for data products and BI software. Previously HCE had bought a brand new software to expose BI dashboard throughout all our users. I quickly realized that our final users (work force at front desk) were struggling to use the new software (it was complicated to use) and it contained too much information so they didn't know where to start their analysis process. I knew HCE had made a big investment on this new software but we were not having any advantage while using it. I made a plan to build a home made information platform having taking into consideration our final users requirements. This will requiere further investment but the benefits we could have were big. I discussed this idea with the CIO, COO and CEO explaining the struggles I knew our operations team were facing and the benefits they'll have after taking a positive decission (authorizing the new investment). After all the C level authorized the investment and our operations team now have a platform where they can easily analize information to take day to day decissions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working as an SDM for HCE I me and my peers were responsible for our software improvements at our Prodctive environment. There was one time when one of my peers made a change on our productive environment and while executing the change plan they mistakenly earased a DB of an application I was responsible for. That DB contained significant improvements for new changes on an app I was working on. My peer argued that she decided to earase the DB because it didn't comply with the naming convention of our productive env and that they need storage space on the server. Of course I was mad and she was turning this on me. I calm down and let her know that I understood that maybe the naming convention and the standards didn't comply to our standard but she also made a mistake by taking a decission without asking her teammates. After a couple minutes of discussion I asked her for help (letting her now that I was in big trouble) she apologyzed for the decision she took, and she offered her help to get this right. After 5 hours of weekend work we could recover the information we lost. </t>
+  </si>
+  <si>
+    <t>As an SDM at HCE I was also responsible for the PMS.  As part of the maintainance and improvements of the software our infrastructure team (leaded by one of my peers) have continous interaction with the PMS team. One time our infrastucture team had a requirement for our PMS development team, they needed to make an improvement on an SP that was presenting lack of performance. As the PMS team was working after hours to deliver an urgent upgrade package (leaded by me) they coudn't attend the infrastructure area's requirement. Infra head was really mad and went into my office yelling and telling me that my team didn't answer his requirements and that I needed to make something so they could give him a solution inmediately. As he was speaking I was listening carefully to his demmand, I told him I understood his needs but I also let him know that the requirements we were working on would have a huge impact on our business. After hearing my explanation he calm down. I shared with him my proyect plan and together we found an optimal time where we could attend his requirements. He was ok with the decission we both made and he apologyze for his previous reaction</t>
+  </si>
+  <si>
+    <t>When I was named as an SDM for HCE, as this position was new one of my first tasks was to build a team from the ground up. I had little experience on building teams so I started to make a list of skills that I needed on my team. Then I made a list of people I knew that had the skills I was looking for. Then I told them about the new team y was now creating (some of this people were former peers and some of them were my career mates). As the team began I needed to be aware that the new members could work along together and that we have a peacefull and productive working ennvironment (of course you can only know this when you interview your candidates, speak with them and understand how they work and how do they behave inside a team)</t>
+  </si>
+  <si>
+    <t>As a newly SDSD I faced strong challenges: Learn how to manage big teams, learn how to assign activities to SDM, create strategy for our software environment, participate on business meeting with C level directors and give opinnions and solutions to the issues we faced during the differnet meetings). Of course nobody borns being a director (subdirector) so the first thing I did to face these challenges was to ask for coaching to my boss and peers. I also activiley observed how other subdirectors took decisions and managed thier teams. I am onn a continous learning cycle</t>
+  </si>
+  <si>
+    <t>As an SDSD I had to lead the ERP migration. As soon as I took a deepdive into the proyect I realized that the plan was too ambitious and this responded to our business urgent needs. As soon as I realized about this, I made a new proyect plan creating a module shipping strategy taking into consideration our business needs and priorities. To successfully implement this new ERP we were asking for 6 more months given the fact that with the former plan and the given dates we were only creating false expectations on our end users</t>
+  </si>
+  <si>
+    <t>One of my proyects at HCE as an SDSD was to enable our mobile app to create a virtual key to let our users open our room doors with their smartphone. We created a roadmap for this upgrade and communicated the shipping date to our CEO. He also communicated this date to our partners and shareholders so everyone was truly exited. As I began de development I realized that the technology we had on each property wasn't what we needed to enable this. We would need to change door locks on hoteles and this represented a huge investment. As soon as I realized about this I expose the scenario to our CEO and I also exposed him that several hotel chain were facing the same issues, and I considered it was a huge investment for a small benefit but the final call was up to him. After this experience I learn to double check all the proyect dependencies and not to rush on giving a shipping date without being sure that the proyect is viable.</t>
+  </si>
+  <si>
+    <t>Internet site speed (Technology vs Marketing)</t>
+  </si>
+  <si>
+    <t>Undepeforming teammate cause divorce fire</t>
+  </si>
+  <si>
+    <t>Cheering up PIN PAD release team</t>
+  </si>
+  <si>
+    <t>Angry boss for poor testing on realeased apps</t>
+  </si>
+  <si>
+    <t>New Team of hospitialty tech products</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,6 +259,22 @@
     <font>
       <sz val="22"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -376,10 +431,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -549,8 +606,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -852,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1026,7 +1088,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="392">
+    <row r="11" spans="1:12" ht="409">
       <c r="A11" s="36" t="s">
         <v>27</v>
       </c>
@@ -1042,10 +1104,49 @@
       <c r="F11" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
+      <c r="G11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="409">
+      <c r="A12" s="36" t="s">
         <v>28</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="39" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:12">

--- a/Resources/behavior_preparation_grid.xlsx
+++ b/Resources/behavior_preparation_grid.xlsx
@@ -198,19 +198,19 @@
     <t>One of my proyects at HCE as an SDSD was to enable our mobile app to create a virtual key to let our users open our room doors with their smartphone. We created a roadmap for this upgrade and communicated the shipping date to our CEO. He also communicated this date to our partners and shareholders so everyone was truly exited. As I began de development I realized that the technology we had on each property wasn't what we needed to enable this. We would need to change door locks on hoteles and this represented a huge investment. As soon as I realized about this I expose the scenario to our CEO and I also exposed him that several hotel chain were facing the same issues, and I considered it was a huge investment for a small benefit but the final call was up to him. After this experience I learn to double check all the proyect dependencies and not to rush on giving a shipping date without being sure that the proyect is viable.</t>
   </si>
   <si>
-    <t>Internet site speed (Technology vs Marketing)</t>
-  </si>
-  <si>
-    <t>Undepeforming teammate cause divorce fire</t>
-  </si>
-  <si>
-    <t>Cheering up PIN PAD release team</t>
-  </si>
-  <si>
-    <t>Angry boss for poor testing on realeased apps</t>
-  </si>
-  <si>
-    <t>New Team of hospitialty tech products</t>
+    <t>After the failure of our mobile key release the team had low spirits because of our failure. I had to found a way as a team leader to cheer the guys up, so I decided to convene a meeting and make a retrospective analysisis of what we could do better. By making this analysis the team noticed that actualy we did great things and the failure was because of little mistakes (some of them because we took things for granted). We documented the proyect history and we agreed to double our effort when further dealing with the things that went wrong (lack of analysis, harden the test scenarios, making a rollout plan) etc. But anyway failure is always a risk and you should get the pieces together and learn from your mistakes. We decided to take a break and hang out for a while to relief some stress and continue on our proyects.</t>
+  </si>
+  <si>
+    <t>We had a marketing presentation on HCE with our C level suite to talk about our website selling metrics. The marketing team presented some really low performance metrics (the were'nt hitting the budget). They blame the low selling performance on a slow performance of the website (AVG load time of 2s) and they argued that was the cause of a high bouncerate. I told our audience that I didn't think that was the real cause. After a couple of minutes on defending my point of view I commited to do 2 things: Improve our website peroformance and help marketing team to anlayze the real cause of the high bouncerate. After a couple of days I managed to improve the ws performance to (0.5 load average time) but bouncerate didn't improve. I asked the data product team to help us find the real issue on the ws. They track the user behaviour on the website and noticed that at the middle of the reservation process the bouncerate had an important increment. They told us that probably our reservation process was too long so we should think about optimizing it. That made the trick</t>
+  </si>
+  <si>
+    <t>As part of my evolution strategy of software development area at HCE I created a new Area which goal was to create technology that could be used by hotel chains throughout the world. We have some materialized ideas that could generate an extra income to our company. I needed a brand new team to take this area and get it to work. I made a job description for every vacancy I had for this area. I enterviewed some of my peers teammates and collaborators too see if anyone was a good fit to this job descriptions. After I found a couple of elements for the new team I looked outside the company for new talent, taking into account my team profile and skills. I also took special care of including people that could take along with our teammates and people that could apport special value to my team (I needes people that complement with each other).</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>When delivering our mobile key app we faced some issues that were out of scope which caused us some setbacks on this proyect. Our CEO wanted to present this new requirement to our franchisees on a meeting scheduled 3 weeks ahead from the time we were having the struggles. My manager wanted to realease the app on Apple Store and Google play so that everybody could donwload it and play with the mobile key application during the meeting on our hotel. After konwing about this issues, shipping the app on stores seemed a hard goal to reach. I decided to create a internal shipping strategy where we could skip apple testing process and we could control who downloaded the app. Of course my manager didn't recieved well these news but he let me explained why I took this decision. After all I explained him that we were facing out of scope issues and that we didn't want to loose the death line. We created brochures to explain our franchisees how to download our beta app and we created an on site help desk to give on site support in case someone had any issues with their mobile key, after all the presentation went well and everybody loved the new feature.</t>
   </si>
 </sst>
 </file>
@@ -431,12 +431,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -570,6 +572,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -606,13 +611,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -914,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -937,22 +944,22 @@
       <c r="B1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:12">
       <c r="B2" s="34" t="s">
@@ -1116,7 +1123,7 @@
       <c r="J11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="57" t="s">
+      <c r="K11" s="45" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1133,20 +1140,17 @@
       <c r="E12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="H12" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="39" t="s">
         <v>61</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1164,21 +1168,26 @@
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="L18" s="58" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1"/>
     <row r="23" spans="1:12" s="32" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="54" t="s">
+      <c r="C23" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="57"/>
       <c r="J23" s="29"/>
       <c r="K23" s="30"/>
       <c r="L23" s="31"/>

--- a/Resources/behavior_preparation_grid.xlsx
+++ b/Resources/behavior_preparation_grid.xlsx
@@ -575,6 +575,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -610,9 +613,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -921,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -944,22 +944,22 @@
       <c r="B1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="52" t="s">
+      <c r="H1" s="51"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55"/>
     </row>
     <row r="2" spans="1:12">
       <c r="B2" s="34" t="s">
@@ -1171,7 +1171,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="L18" s="58" t="s">
+      <c r="L18" s="46" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1179,15 +1179,15 @@
     <row r="23" spans="1:12" s="32" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="29"/>
       <c r="K23" s="30"/>
       <c r="L23" s="31"/>
